--- a/src/main/webapp/TemplateUpload/Template_ProductSewingCost_New.xlsx
+++ b/src/main/webapp/TemplateUpload/Template_ProductSewingCost_New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieua\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ThucTap\GMESApiCore_T3\src\main\webapp\TemplateUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27198737-8ECB-4DB7-8B7B-505DF22636D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DE82AE-B991-43BE-BF4B-EB07829F6C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="5670" windowWidth="21600" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="6015" windowWidth="21600" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>STT (SewingCost)</t>
   </si>
   <si>
     <t>Tên công đoạn</t>
-  </si>
-  <si>
-    <t>Mã công đoạn</t>
   </si>
   <si>
     <t>Cụm công đoạn</t>
@@ -404,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +413,7 @@
     <col min="2" max="15" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,9 +440,6 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
